--- a/r4-core-AdditionalAdministrativeGenderCodes/all-profiles.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T18:15:38+00:00</t>
+    <t>2023-12-09T18:46:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-AdditionalAdministrativeGenderCodes/all-profiles.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T18:46:14+00:00</t>
+    <t>2024-01-13T13:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-AdditionalAdministrativeGenderCodes/all-profiles.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:38:20+00:00</t>
+    <t>2024-02-04T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -698,7 +698,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-at-ext-gender-1:The extension for the additional administrative gender codes is only applied if the administrative gender itself is set to 'other' {%resource.where(gender='other').exists()}</t>
+at-ext-gender-1:The extension for the additional administrative gender codes is only applied if the administrative gender itself is set to 'other' {%resource.where(gender='other').exists() or %resource.contact.where(gender='other').exists()}</t>
   </si>
   <si>
     <t>at-core-ext-patient-religion</t>
